--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3256.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3256.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.642731481095258</v>
+        <v>1.428482174873352</v>
       </c>
       <c r="B1">
-        <v>1.771733794655375</v>
+        <v>3.277657985687256</v>
       </c>
       <c r="C1">
-        <v>2.052015786227881</v>
+        <v>2.301731109619141</v>
       </c>
       <c r="D1">
-        <v>3.393327976150195</v>
+        <v>2.04340672492981</v>
       </c>
       <c r="E1">
-        <v>3.015970420532001</v>
+        <v>1.763611912727356</v>
       </c>
     </row>
   </sheetData>
